--- a/data/trans_orig/P21D5_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>229029</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>215549</v>
+        <v>217804</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>235911</v>
+        <v>236484</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.937067108082511</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8819170434768344</v>
+        <v>0.8911400893474093</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9652264651537659</v>
+        <v>0.9675728543105445</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>297</v>
@@ -762,19 +762,19 @@
         <v>222120</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>213181</v>
+        <v>213798</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>227476</v>
+        <v>227278</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9458985095749768</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9078313236996776</v>
+        <v>0.910462543896701</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9687099944577814</v>
+        <v>0.9678643126334178</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>527</v>
@@ -783,19 +783,19 @@
         <v>451148</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>436735</v>
+        <v>435489</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>460902</v>
+        <v>460616</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9413944819123086</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9113188662030415</v>
+        <v>0.9087188478435237</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9617463645787225</v>
+        <v>0.9611500697147116</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11586</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5599</v>
+        <v>4913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23227</v>
+        <v>23053</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04740386620410153</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02290941501052438</v>
+        <v>0.02010262766996187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09503244452879882</v>
+        <v>0.09432148313966274</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -833,19 +833,19 @@
         <v>10153</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5541</v>
+        <v>5680</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17658</v>
+        <v>18318</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04323602568568523</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02359727573296442</v>
+        <v>0.02418886551591297</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07519846253118023</v>
+        <v>0.07800937515900383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -854,19 +854,19 @@
         <v>21739</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13442</v>
+        <v>13710</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35201</v>
+        <v>36412</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04536163043874183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02804961475683699</v>
+        <v>0.02860734664644294</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0734515983123197</v>
+        <v>0.07597973229705826</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>3795</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11369</v>
+        <v>11560</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01552902571338738</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002994274891735509</v>
+        <v>0.003021765722169166</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04651790559062242</v>
+        <v>0.04729740762793987</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -904,19 +904,19 @@
         <v>2551</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7218</v>
+        <v>8209</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01086546473933802</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002770844329216093</v>
+        <v>0.002813783690226089</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03073958398974399</v>
+        <v>0.0349585428839674</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -925,19 +925,19 @@
         <v>6347</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2382</v>
+        <v>2593</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13358</v>
+        <v>13952</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01324388764894957</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004970075921950999</v>
+        <v>0.005411484200850556</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02787329318819476</v>
+        <v>0.02911411595690211</v>
       </c>
     </row>
     <row r="7">
@@ -1076,19 +1076,19 @@
         <v>181162</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>170296</v>
+        <v>168676</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>187702</v>
+        <v>187549</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9199430416966154</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8647693753421092</v>
+        <v>0.8565402496693281</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9531551163828613</v>
+        <v>0.9523771957770172</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>253</v>
@@ -1097,19 +1097,19 @@
         <v>185507</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>177204</v>
+        <v>176615</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>190719</v>
+        <v>190476</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.9434684790319351</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.9012424212993316</v>
+        <v>0.8982470183901464</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9699755571200394</v>
+        <v>0.9687428738704167</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>432</v>
@@ -1118,19 +1118,19 @@
         <v>366668</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>354886</v>
+        <v>354242</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>375540</v>
+        <v>375574</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.9316966391309864</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.9017590764890644</v>
+        <v>0.9001208447066975</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9542387990725195</v>
+        <v>0.954324673334394</v>
       </c>
     </row>
     <row r="10">
@@ -1147,19 +1147,19 @@
         <v>12398</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6510</v>
+        <v>6715</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23294</v>
+        <v>23489</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06295872632889128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03305648072524541</v>
+        <v>0.03409782882636867</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1182865372085892</v>
+        <v>0.1192778945575749</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1168,19 +1168,19 @@
         <v>6749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3294</v>
+        <v>3382</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12504</v>
+        <v>11320</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03432435470707568</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01675383329341303</v>
+        <v>0.01720170510666565</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06359405838861852</v>
+        <v>0.05757293047034532</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1189,19 +1189,19 @@
         <v>19147</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12018</v>
+        <v>11819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30399</v>
+        <v>31433</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0486526425765731</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03053783133396518</v>
+        <v>0.03003080671623979</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07724229698071443</v>
+        <v>0.07987007017398369</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1218,19 @@
         <v>2781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8122</v>
+        <v>7459</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01412359574098684</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003730964439807628</v>
+        <v>0.003728446058364263</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04124542782118119</v>
+        <v>0.03787873799110074</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1239,19 +1239,19 @@
         <v>4366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1247</v>
+        <v>1277</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13271</v>
+        <v>13465</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02220716626098927</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006343022451254885</v>
+        <v>0.006492995778864938</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06749694803007468</v>
+        <v>0.06848058744968802</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1260,19 +1260,19 @@
         <v>7148</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3142</v>
+        <v>3008</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15818</v>
+        <v>16224</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01816224685595732</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007983414649475227</v>
+        <v>0.007644330679390937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04019318056638444</v>
+        <v>0.04122499557974372</v>
       </c>
     </row>
     <row r="12">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3654</v>
+        <v>3015</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002974636233506261</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01855318961844911</v>
+        <v>0.01531102452410184</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3360</v>
+        <v>2990</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.001488471436483117</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.008537276092029759</v>
+        <v>0.007598173041347203</v>
       </c>
     </row>
     <row r="13">
@@ -1427,19 +1427,19 @@
         <v>178976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>169939</v>
+        <v>170466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>184033</v>
+        <v>183970</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9477786320552013</v>
+        <v>0.9477786320552014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8999223589795508</v>
+        <v>0.9027127511454226</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9745609933192266</v>
+        <v>0.9742253747205973</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>123</v>
@@ -1448,19 +1448,19 @@
         <v>83172</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78862</v>
+        <v>79474</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>85266</v>
+        <v>85494</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.960185443166738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9104250932768441</v>
+        <v>0.9174864872733151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9843582564138168</v>
+        <v>0.9869872659105967</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>303</v>
@@ -1469,19 +1469,19 @@
         <v>262148</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>252243</v>
+        <v>253387</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>267662</v>
+        <v>268600</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.951680100592817</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.915723471626687</v>
+        <v>0.919876154380307</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9716971326367521</v>
+        <v>0.9751025581929101</v>
       </c>
     </row>
     <row r="15">
@@ -1498,19 +1498,19 @@
         <v>8867</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3986</v>
+        <v>4305</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17984</v>
+        <v>17113</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04695368871857715</v>
+        <v>0.04695368871857714</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02110591260323269</v>
+        <v>0.02279517364029156</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09523631141835506</v>
+        <v>0.09062064758030274</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -1519,19 +1519,19 @@
         <v>3017</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1099</v>
+        <v>1040</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6960</v>
+        <v>6791</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.03482889150216069</v>
+        <v>0.03482889150216067</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01268690500275283</v>
+        <v>0.01200960032449002</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08035402728451325</v>
+        <v>0.07839497474946716</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>13</v>
@@ -1540,19 +1540,19 @@
         <v>11884</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6696</v>
+        <v>5855</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>21183</v>
+        <v>20170</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.04314090278675688</v>
+        <v>0.04314090278675687</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02431019661375344</v>
+        <v>0.02125634089480985</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07690274740772092</v>
+        <v>0.07322203903631161</v>
       </c>
     </row>
     <row r="16">
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2351</v>
+        <v>3116</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.004985665331101202</v>
+        <v>0.004985665331101201</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0271394994129483</v>
+        <v>0.03596763422610327</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2375</v>
+        <v>2662</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001567801448213006</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008621529251986743</v>
+        <v>0.009665652414910152</v>
       </c>
     </row>
     <row r="17">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5373</v>
+        <v>4887</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005267679226221417</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0284512927465442</v>
+        <v>0.0258789050324463</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5163</v>
+        <v>4843</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003611195172213047</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01874489192778344</v>
+        <v>0.01758082788769631</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>487834</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>474402</v>
+        <v>474966</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>496420</v>
+        <v>496784</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9552651539386451</v>
+        <v>0.9552651539386452</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9289641817229618</v>
+        <v>0.9300669578396308</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9720788904612788</v>
+        <v>0.9727913553114063</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>505</v>
@@ -1791,19 +1791,19 @@
         <v>364848</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>356076</v>
+        <v>356061</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>371226</v>
+        <v>371559</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9435731821693656</v>
+        <v>0.9435731821693657</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9208870397589634</v>
+        <v>0.9208492296250393</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9600677199815832</v>
+        <v>0.9609295029956725</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>978</v>
@@ -1812,19 +1812,19 @@
         <v>852682</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>839174</v>
+        <v>838300</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>863747</v>
+        <v>863809</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.950227081211791</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9351732385106388</v>
+        <v>0.9341996026995966</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9625569928845373</v>
+        <v>0.9626265916339934</v>
       </c>
     </row>
     <row r="20">
@@ -1841,19 +1841,19 @@
         <v>17973</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10507</v>
+        <v>10088</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29604</v>
+        <v>31068</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03519521313058712</v>
+        <v>0.03519521313058713</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02057478794181361</v>
+        <v>0.01975462201730413</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05796965928409501</v>
+        <v>0.06083646380846057</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -1862,19 +1862,19 @@
         <v>18718</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12885</v>
+        <v>11835</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26349</v>
+        <v>25897</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.04840960317096916</v>
+        <v>0.04840960317096917</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03332255799392631</v>
+        <v>0.03060840819193857</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06814502840034224</v>
+        <v>0.06697520791809833</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -1883,19 +1883,19 @@
         <v>36692</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26412</v>
+        <v>27179</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49811</v>
+        <v>50327</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04088929616279074</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02943366068444418</v>
+        <v>0.03028825677738452</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05550915338867667</v>
+        <v>0.05608435461317695</v>
       </c>
     </row>
     <row r="21">
@@ -1912,19 +1912,19 @@
         <v>3067</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7887</v>
+        <v>8547</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00600655994424266</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001484183325266914</v>
+        <v>0.001490144716752741</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01544496715933546</v>
+        <v>0.01673673028735074</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3956</v>
+        <v>4062</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002917076447286905</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01023070177941164</v>
+        <v>0.01050634881278253</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1954,19 +1954,19 @@
         <v>4195</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1154</v>
+        <v>1197</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9918</v>
+        <v>9980</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.004675300952754598</v>
+        <v>0.004675300952754597</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001286427049775097</v>
+        <v>0.001333826002892973</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01105228360167776</v>
+        <v>0.01112129029870502</v>
       </c>
     </row>
     <row r="22">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6454</v>
+        <v>7709</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003533072986525235</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01263799227326163</v>
+        <v>0.01509598907859764</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2004,19 +2004,19 @@
         <v>1972</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5156</v>
+        <v>5708</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.005100138212378385</v>
+        <v>0.005100138212378386</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001520945335600427</v>
+        <v>0.001530169706310763</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01333338933087178</v>
+        <v>0.01476104724717833</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2025,19 +2025,19 @@
         <v>3776</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1333</v>
+        <v>1258</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8915</v>
+        <v>8829</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.004208321672663517</v>
+        <v>0.004208321672663516</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001485704497257027</v>
+        <v>0.001401416794043383</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009935000901196873</v>
+        <v>0.00983913499599443</v>
       </c>
     </row>
     <row r="23">
@@ -2129,19 +2129,19 @@
         <v>257216</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>248223</v>
+        <v>249509</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>262107</v>
+        <v>262178</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9669523023533461</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9331430795553924</v>
+        <v>0.937977566722841</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.985338410922258</v>
+        <v>0.9856072006737144</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>536</v>
@@ -2150,19 +2150,19 @@
         <v>360706</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>351807</v>
+        <v>352915</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>367215</v>
+        <v>368386</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9299394512540887</v>
+        <v>0.9299394512540886</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9069983974787398</v>
+        <v>0.9098537956776372</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9467201632812278</v>
+        <v>0.9497396151342448</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>775</v>
@@ -2171,19 +2171,19 @@
         <v>617922</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>605562</v>
+        <v>606488</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>627397</v>
+        <v>627184</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9449965997360065</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9260938248322692</v>
+        <v>0.9275105144998305</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9594873257210039</v>
+        <v>0.9591610657412943</v>
       </c>
     </row>
     <row r="25">
@@ -2200,19 +2200,19 @@
         <v>8262</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3390</v>
+        <v>3360</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17362</v>
+        <v>16026</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03106120314003316</v>
+        <v>0.03106120314003317</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01274307839731942</v>
+        <v>0.01263309890249346</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06526745130244714</v>
+        <v>0.06024566009623337</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -2221,19 +2221,19 @@
         <v>19809</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13763</v>
+        <v>13812</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27380</v>
+        <v>26895</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05106854228798258</v>
+        <v>0.05106854228798257</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03548211255109469</v>
+        <v>0.03560917381525582</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07058770601918773</v>
+        <v>0.06933703126153055</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -2242,19 +2242,19 @@
         <v>28071</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19928</v>
+        <v>20459</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39697</v>
+        <v>39204</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.042929383392309</v>
+        <v>0.04292938339230901</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03047552791918307</v>
+        <v>0.0312880358833386</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06070960873340003</v>
+        <v>0.05995507103447311</v>
       </c>
     </row>
     <row r="26">
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2192</v>
+        <v>2729</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.001986494506620907</v>
+        <v>0.001986494506620908</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008240070226331374</v>
+        <v>0.01025757466134164</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -2292,19 +2292,19 @@
         <v>3963</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1662</v>
+        <v>1359</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8883</v>
+        <v>8685</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01021762420683179</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004285870439127957</v>
+        <v>0.003502605457375321</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02290139114115623</v>
+        <v>0.02239184569769866</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2313,19 +2313,19 @@
         <v>4492</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9332</v>
+        <v>9120</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006869129335749412</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002932716519155654</v>
+        <v>0.00293614402370829</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01427206868853788</v>
+        <v>0.01394783354828903</v>
       </c>
     </row>
     <row r="27">
@@ -2355,19 +2355,19 @@
         <v>3403</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1209</v>
+        <v>1128</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8577</v>
+        <v>7851</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.008774382251096982</v>
+        <v>0.008774382251096981</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.003116304991593002</v>
+        <v>0.002908374267781252</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02211201764911468</v>
+        <v>0.02024069720891047</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -2376,19 +2376,19 @@
         <v>3403</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1077</v>
+        <v>1021</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7587</v>
+        <v>8183</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.005204887535935131</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.001647173218008303</v>
+        <v>0.001561623617251769</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01160291090257481</v>
+        <v>0.01251446810983147</v>
       </c>
     </row>
     <row r="28">
@@ -2480,19 +2480,19 @@
         <v>113090</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>107036</v>
+        <v>106221</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>116389</v>
+        <v>116332</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9629816879646318</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9114363220420719</v>
+        <v>0.9044947131544656</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9910731063151254</v>
+        <v>0.9905866969968569</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>459</v>
@@ -2501,19 +2501,19 @@
         <v>335736</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>325278</v>
+        <v>324790</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>342620</v>
+        <v>342297</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9470696071156239</v>
+        <v>0.9470696071156237</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9175691099707424</v>
+        <v>0.916191238176245</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9664871009643813</v>
+        <v>0.9655762827897348</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>511</v>
@@ -2522,19 +2522,19 @@
         <v>448826</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>436304</v>
+        <v>436665</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>456260</v>
+        <v>456540</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9510291835118215</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9244955587030971</v>
+        <v>0.9252622241767714</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9667808282736778</v>
+        <v>0.9673747500829655</v>
       </c>
     </row>
     <row r="30">
@@ -2551,19 +2551,19 @@
         <v>4347</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1048</v>
+        <v>1105</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10401</v>
+        <v>11216</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03701831203536819</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008926893684874719</v>
+        <v>0.009413303003143188</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08856367795792822</v>
+        <v>0.09550528684553426</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -2572,19 +2572,19 @@
         <v>15444</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9335</v>
+        <v>9452</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25716</v>
+        <v>26944</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04356525053510481</v>
+        <v>0.0435652505351048</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02633158029228232</v>
+        <v>0.0266634890110693</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07254268398283009</v>
+        <v>0.07600476407337629</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>24</v>
@@ -2593,19 +2593,19 @@
         <v>19791</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>12530</v>
+        <v>12508</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>31383</v>
+        <v>31225</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04193610451725188</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02654990331305806</v>
+        <v>0.02650385775007236</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06649907941415631</v>
+        <v>0.0661630446110688</v>
       </c>
     </row>
     <row r="31">
@@ -2635,19 +2635,19 @@
         <v>2709</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6543</v>
+        <v>7055</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.007640648968102785</v>
+        <v>0.007640648968102784</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001997441556001013</v>
+        <v>0.001971619298752944</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01845569057487338</v>
+        <v>0.01990252332399097</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -2656,19 +2656,19 @@
         <v>2709</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6619</v>
+        <v>6910</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.005739343061426328</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001434786203815499</v>
+        <v>0.001495441719343256</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01402612510417064</v>
+        <v>0.01464244047709995</v>
       </c>
     </row>
     <row r="32">
@@ -2701,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3789</v>
+        <v>3683</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.001724493381168607</v>
+        <v>0.001724493381168606</v>
       </c>
       <c r="O32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01068775253963666</v>
+        <v>0.01038857438807988</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3192</v>
+        <v>2939</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00129536890950027</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.006764392019181789</v>
+        <v>0.006228201468366557</v>
       </c>
     </row>
     <row r="33">
@@ -2823,19 +2823,19 @@
         <v>1447306</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1425334</v>
+        <v>1428575</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1465863</v>
+        <v>1465406</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9494904779466016</v>
+        <v>0.9494904779466017</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9350760139674933</v>
+        <v>0.9372017971051992</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9616642162983278</v>
+        <v>0.9613644262679484</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2173</v>
@@ -2844,19 +2844,19 @@
         <v>1552088</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1533393</v>
+        <v>1533085</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1567808</v>
+        <v>1567283</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9423077267174323</v>
+        <v>0.9423077267174322</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9309573487754419</v>
+        <v>0.9307707243521052</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9518515976678105</v>
+        <v>0.9515330666669393</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3526</v>
@@ -2865,19 +2865,19 @@
         <v>2999395</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2971959</v>
+        <v>2972109</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3021160</v>
+        <v>3022727</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.9457600233852123</v>
+        <v>0.9457600233852126</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.937109174641056</v>
+        <v>0.9371564955796866</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9526231154189099</v>
+        <v>0.9531169710898346</v>
       </c>
     </row>
     <row r="35">
@@ -2894,19 +2894,19 @@
         <v>63434</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>46925</v>
+        <v>46697</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>85315</v>
+        <v>82762</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04161532703567453</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03078457154185606</v>
+        <v>0.03063539104903</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0559701542197963</v>
+        <v>0.054295116581751</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>111</v>
@@ -2915,19 +2915,19 @@
         <v>73889</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>60366</v>
+        <v>60494</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>90190</v>
+        <v>89623</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.04485994175919913</v>
+        <v>0.04485994175919912</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0366492724863512</v>
+        <v>0.03672746920201825</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05475613964210631</v>
+        <v>0.05441198751736596</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>166</v>
@@ -2936,19 +2936,19 @@
         <v>137324</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>116932</v>
+        <v>117132</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>160584</v>
+        <v>163706</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.04330045957182144</v>
+        <v>0.04330045957182146</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03687053933722258</v>
+        <v>0.03693368772690525</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05063483922827376</v>
+        <v>0.05161937873175733</v>
       </c>
     </row>
     <row r="36">
@@ -2965,19 +2965,19 @@
         <v>10173</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5165</v>
+        <v>4879</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18591</v>
+        <v>18986</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.006673640077474186</v>
+        <v>0.006673640077474187</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003388569146278247</v>
+        <v>0.003201096741383386</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01219634177150099</v>
+        <v>0.01245550878560862</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>20</v>
@@ -2986,19 +2986,19 @@
         <v>15150</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>9101</v>
+        <v>9464</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>26376</v>
+        <v>25707</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.00919761166867227</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.005525631196035574</v>
+        <v>0.005745971163162357</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01601357035558046</v>
+        <v>0.01560731091874636</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>30</v>
@@ -3007,19 +3007,19 @@
         <v>25322</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>17443</v>
+        <v>16968</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>38773</v>
+        <v>37750</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.007984497301230528</v>
+        <v>0.007984497301230532</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.00549995110628439</v>
+        <v>0.005350229761579772</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01222572399985213</v>
+        <v>0.0119033511666332</v>
       </c>
     </row>
     <row r="37">
@@ -3036,19 +3036,19 @@
         <v>3385</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>678</v>
+        <v>1137</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8299</v>
+        <v>8986</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.00222055494024968</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.000444785266044534</v>
+        <v>0.0007461039430351388</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.005444634998277901</v>
+        <v>0.005895237720080939</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -3057,19 +3057,19 @@
         <v>5987</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2779</v>
+        <v>2985</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>11206</v>
+        <v>11042</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.003634719854696317</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.001687346735715869</v>
+        <v>0.001812139541953084</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.006803605735686022</v>
+        <v>0.006703758478058012</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>13</v>
@@ -3078,19 +3078,19 @@
         <v>9372</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5205</v>
+        <v>5619</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15407</v>
+        <v>17549</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.002955019741735498</v>
+        <v>0.002955019741735499</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001641151502137697</v>
+        <v>0.001771713571561034</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.004857991469989107</v>
+        <v>0.005533617631943621</v>
       </c>
     </row>
     <row r="38">
